--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem4/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem4/99/word_level_predictions_99.xlsx
@@ -502,262 +502,262 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="inlineStr">
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" t="n">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" t="n">
         <v>4</v>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3102,210 +3102,210 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>immediately</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -3674,416 +3674,416 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" t="n">
         <v>4</v>
       </c>
-      <c r="B63" s="2" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" t="n">
         <v>2</v>
       </c>
-      <c r="E63" s="2" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L63" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" t="n">
         <v>4</v>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" t="n">
         <v>3</v>
       </c>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L64" s="2" t="inlineStr">
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="A65" t="n">
         <v>4</v>
       </c>
-      <c r="B65" s="2" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C65" s="2" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D65" s="2" t="n">
+      <c r="D65" t="n">
         <v>4</v>
       </c>
-      <c r="E65" s="2" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F65" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G65" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I65" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K65" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L65" s="2" t="inlineStr">
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K65" t="b">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" t="n">
         <v>4</v>
       </c>
-      <c r="B66" s="2" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C66" s="2" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D66" s="2" t="n">
+      <c r="D66" t="n">
         <v>5</v>
       </c>
-      <c r="E66" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G66" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L66" s="2" t="inlineStr">
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K66" t="b">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" t="n">
         <v>4</v>
       </c>
-      <c r="B67" s="2" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C67" s="2" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D67" s="2" t="n">
+      <c r="D67" t="n">
         <v>6</v>
       </c>
-      <c r="E67" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F67" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G67" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L67" s="2" t="inlineStr">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K67" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" t="n">
         <v>4</v>
       </c>
-      <c r="B68" s="2" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C68" s="2" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D68" s="2" t="n">
+      <c r="D68" t="n">
         <v>7</v>
       </c>
-      <c r="E68" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F68" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G68" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L68" s="2" t="inlineStr">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K68" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" t="n">
         <v>4</v>
       </c>
-      <c r="B69" s="2" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C69" s="2" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D69" s="2" t="n">
+      <c r="D69" t="n">
         <v>8</v>
       </c>
-      <c r="E69" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F69" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G69" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L69" s="2" t="inlineStr">
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K69" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" t="n">
         <v>4</v>
       </c>
-      <c r="B70" s="2" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C70" s="2" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>persists</t>
         </is>
       </c>
-      <c r="D70" s="2" t="n">
+      <c r="D70" t="n">
         <v>9</v>
       </c>
-      <c r="E70" s="2" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F70" s="2" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G70" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L70" s="2" t="inlineStr">
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4298,366 +4298,366 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C75" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D75" t="n">
+      <c r="D75" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="E75" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="inlineStr">
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I75" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr">
+      <c r="I75" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>unable</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K75" t="b">
-        <v>1</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
+      <c r="I76" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B77" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>unable</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>4</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" t="inlineStr">
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I76" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr">
+      <c r="I77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>return</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K76" t="b">
-        <v>1</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
+      <c r="I78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D77" t="n">
+      <c r="D79" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I77" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr">
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>automatically</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K77" t="b">
-        <v>1</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>5</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>return</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>6</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>5</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>7</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>5</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>8</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>5</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>automatically</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>9</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K81" t="b">
-        <v>1</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="F94" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G94" s="2" t="b">
@@ -5321,11 +5321,11 @@
         </is>
       </c>
       <c r="I94" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K94" s="2" t="b">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="L94" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -5373,11 +5373,11 @@
         </is>
       </c>
       <c r="I95" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K95" s="2" t="b">
@@ -5425,11 +5425,11 @@
         </is>
       </c>
       <c r="I96" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K96" s="2" t="b">
@@ -5442,156 +5442,156 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
+      <c r="A97" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C97" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D97" t="n">
+      <c r="D97" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E97" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G97" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I97" t="b">
-        <v>1</v>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K97" t="b">
-        <v>1</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="F97" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G97" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I97" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K97" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L97" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
+      <c r="A98" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C98" s="2" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D98" t="n">
+      <c r="D98" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I98" t="b">
-        <v>1</v>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K98" t="b">
-        <v>1</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="E98" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F98" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G98" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H98" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I98" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J98" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K98" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L98" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
+      <c r="A99" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C99" s="2" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D99" t="n">
+      <c r="D99" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E99" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="F99" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G99" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I99" t="b">
-        <v>1</v>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K99" t="b">
-        <v>1</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="G99" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I99" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K99" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L99" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6898,156 +6898,156 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
+      <c r="A125" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C125" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="E125" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K125" t="b">
-        <v>1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
+      <c r="A126" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C126" s="2" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D126" t="n">
+      <c r="D126" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I126" t="b">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K126" t="b">
-        <v>1</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J126" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
+      <c r="A127" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C127" s="2" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D127" t="n">
+      <c r="D127" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="E127" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="F127" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G127" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I127" t="b">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K127" t="b">
-        <v>1</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="G127" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L127" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7337,7 +7337,7 @@
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G133" s="2" t="b">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -7626,468 +7626,468 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
+      <c r="A139" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B139" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C139" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D139" t="n">
+      <c r="D139" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="E139" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G139" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" t="b">
-        <v>1</v>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K139" t="b">
-        <v>1</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F139" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G139" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J139" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L139" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
+      <c r="A140" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B140" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C140" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D140" t="n">
+      <c r="D140" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" t="b">
-        <v>1</v>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K140" t="b">
-        <v>1</v>
-      </c>
-      <c r="L140" t="inlineStr">
+      <c r="E140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
+      <c r="A141" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B141" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C141" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D141" t="n">
+      <c r="D141" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" t="b">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K141" t="b">
-        <v>1</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J141" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
+      <c r="A142" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B142" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C142" s="2" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D142" t="n">
+      <c r="D142" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" t="b">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K142" t="b">
-        <v>1</v>
-      </c>
-      <c r="L142" t="inlineStr">
+      <c r="E142" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
+      <c r="A143" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B143" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C143" s="2" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D143" t="n">
+      <c r="D143" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" t="b">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K143" t="b">
-        <v>1</v>
-      </c>
-      <c r="L143" t="inlineStr">
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
+      <c r="A144" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B144" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C144" s="2" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D144" t="n">
+      <c r="D144" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" t="b">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K144" t="b">
-        <v>1</v>
-      </c>
-      <c r="L144" t="inlineStr">
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J144" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
+      <c r="A145" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B145" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C145" s="2" t="inlineStr">
         <is>
           <t>persists</t>
         </is>
       </c>
-      <c r="D145" t="n">
+      <c r="D145" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G145" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" t="b">
-        <v>1</v>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K145" t="b">
-        <v>1</v>
-      </c>
-      <c r="L145" t="inlineStr">
+      <c r="E145" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F145" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G145" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
+      <c r="A146" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B146" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C146" s="2" t="inlineStr">
         <is>
           <t>after</t>
         </is>
       </c>
-      <c r="D146" t="n">
+      <c r="D146" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G146" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I146" t="b">
-        <v>1</v>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K146" t="b">
-        <v>1</v>
-      </c>
-      <c r="L146" t="inlineStr">
+      <c r="E146" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F146" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G146" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J146" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L146" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
+      <c r="A147" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B147" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C147" s="2" t="inlineStr">
         <is>
           <t>restarting</t>
         </is>
       </c>
-      <c r="D147" t="n">
+      <c r="D147" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="E147" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="F147" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G147" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I147" t="b">
-        <v>1</v>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K147" t="b">
-        <v>1</v>
-      </c>
-      <c r="L147" t="inlineStr">
+      <c r="G147" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J147" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L147" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9550,418 +9550,418 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" t="n">
         <v>11</v>
       </c>
-      <c r="B176" s="2" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C176" s="2" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>Weak</t>
         </is>
       </c>
-      <c r="D176" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E176" s="2" t="inlineStr">
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" s="2" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G176" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" s="2" t="inlineStr">
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L176" s="2" t="inlineStr">
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="n">
+      <c r="A177" t="n">
         <v>11</v>
       </c>
-      <c r="B177" s="2" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C177" s="2" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D177" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" s="2" t="inlineStr">
+      <c r="D177" t="n">
+        <v>1</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L177" s="2" t="inlineStr">
+      <c r="I177" t="b">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
+      <c r="A178" t="n">
         <v>11</v>
       </c>
-      <c r="B178" s="2" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C178" s="2" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D178" s="2" t="n">
+      <c r="D178" t="n">
         <v>2</v>
       </c>
-      <c r="E178" s="2" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" s="2" t="inlineStr">
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L178" s="2" t="inlineStr">
+      <c r="I178" t="b">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" t="n">
         <v>11</v>
       </c>
-      <c r="B179" s="2" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C179" s="2" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>Positioning</t>
         </is>
       </c>
-      <c r="D179" s="2" t="n">
+      <c r="D179" t="n">
         <v>3</v>
       </c>
-      <c r="E179" s="2" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" s="2" t="inlineStr">
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L179" s="2" t="inlineStr">
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" t="n">
         <v>11</v>
       </c>
-      <c r="B180" s="2" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C180" s="2" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>accuracy</t>
         </is>
       </c>
-      <c r="D180" s="2" t="n">
+      <c r="D180" t="n">
         <v>4</v>
       </c>
-      <c r="E180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" s="2" t="inlineStr">
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" t="n">
         <v>11</v>
       </c>
-      <c r="B181" s="2" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C181" s="2" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D181" s="2" t="n">
+      <c r="D181" t="n">
         <v>5</v>
       </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" s="2" t="inlineStr">
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" t="n">
         <v>11</v>
       </c>
-      <c r="B182" s="2" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C182" s="2" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D182" s="2" t="n">
+      <c r="D182" t="n">
         <v>6</v>
       </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" s="2" t="inlineStr">
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L182" s="2" t="inlineStr">
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" t="n">
         <v>11</v>
       </c>
-      <c r="B183" s="2" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C183" s="2" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>compromised</t>
         </is>
       </c>
-      <c r="D183" s="2" t="n">
+      <c r="D183" t="n">
         <v>7</v>
       </c>
-      <c r="E183" s="2" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" s="2" t="inlineStr">
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10434,314 +10434,314 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="n">
+      <c r="A193" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="B193" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
+      <c r="C193" s="2" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="D193" t="n">
+      <c r="D193" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="E193" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G193" t="b">
-        <v>1</v>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I193" t="b">
-        <v>1</v>
-      </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K193" t="b">
-        <v>1</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F193" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G193" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H193" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I193" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J193" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K193" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L193" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="n">
+      <c r="A194" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="B194" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
+      <c r="C194" s="2" t="inlineStr">
         <is>
           <t>violate</t>
         </is>
       </c>
-      <c r="D194" t="n">
+      <c r="D194" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G194" t="b">
-        <v>1</v>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I194" t="b">
-        <v>1</v>
-      </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K194" t="b">
-        <v>1</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E194" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F194" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G194" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H194" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I194" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J194" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K194" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L194" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="n">
+      <c r="A195" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="B195" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
+      <c r="C195" s="2" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D195" t="n">
+      <c r="D195" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G195" t="b">
-        <v>1</v>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I195" t="b">
-        <v>1</v>
-      </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K195" t="b">
-        <v>1</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E195" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F195" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G195" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H195" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I195" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J195" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K195" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L195" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="n">
+      <c r="A196" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B196" t="inlineStr">
+      <c r="B196" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
+      <c r="C196" s="2" t="inlineStr">
         <is>
           <t>policies</t>
         </is>
       </c>
-      <c r="D196" t="n">
+      <c r="D196" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G196" t="b">
-        <v>1</v>
-      </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I196" t="b">
-        <v>1</v>
-      </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K196" t="b">
-        <v>1</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E196" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F196" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G196" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H196" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I196" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J196" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K196" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L196" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
+      <c r="A197" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C197" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D197" t="n">
+      <c r="D197" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G197" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I197" t="b">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K197" t="b">
-        <v>1</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E197" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F197" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G197" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J197" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L197" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D198" t="n">
+      <c r="D198" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E198" t="inlineStr">
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F198" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -10769,7 +10769,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G199" t="b">
@@ -10793,7 +10793,7 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12150,312 +12150,312 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="n">
+      <c r="A226" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B226" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
+      <c r="C226" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D226" t="n">
+      <c r="D226" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E226" t="inlineStr">
+      <c r="E226" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G226" t="b">
-        <v>1</v>
-      </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I226" t="b">
-        <v>1</v>
-      </c>
-      <c r="J226" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K226" t="b">
-        <v>1</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F226" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G226" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H226" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I226" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J226" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K226" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L226" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
+      <c r="A227" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B227" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
+      <c r="C227" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D227" t="n">
+      <c r="D227" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G227" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I227" t="b">
-        <v>1</v>
-      </c>
-      <c r="J227" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K227" t="b">
-        <v>1</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E227" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F227" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G227" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J227" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L227" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="n">
+      <c r="A228" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B228" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
+      <c r="C228" s="2" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D228" t="n">
+      <c r="D228" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G228" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I228" t="b">
-        <v>1</v>
-      </c>
-      <c r="J228" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K228" t="b">
-        <v>1</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E228" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F228" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G228" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J228" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L228" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="n">
+      <c r="A229" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="B229" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
+      <c r="C229" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D229" t="n">
+      <c r="D229" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G229" t="b">
-        <v>1</v>
-      </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I229" t="b">
-        <v>1</v>
-      </c>
-      <c r="J229" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K229" t="b">
-        <v>1</v>
-      </c>
-      <c r="L229" t="inlineStr">
+      <c r="E229" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F229" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G229" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I229" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J229" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K229" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L229" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="n">
+      <c r="A230" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B230" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
+      <c r="C230" s="2" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D230" t="n">
+      <c r="D230" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G230" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I230" t="b">
-        <v>1</v>
-      </c>
-      <c r="J230" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K230" t="b">
-        <v>1</v>
-      </c>
-      <c r="L230" t="inlineStr">
+      <c r="E230" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F230" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G230" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J230" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L230" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="n">
+      <c r="A231" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="B231" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
+      <c r="C231" s="2" t="inlineStr">
         <is>
           <t>manually</t>
         </is>
       </c>
-      <c r="D231" t="n">
+      <c r="D231" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E231" t="inlineStr">
+      <c r="E231" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
+      <c r="F231" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G231" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I231" t="b">
-        <v>1</v>
-      </c>
-      <c r="J231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K231" t="b">
-        <v>1</v>
-      </c>
-      <c r="L231" t="inlineStr">
+      <c r="G231" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J231" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L231" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12878,156 +12878,156 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="n">
+      <c r="A240" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B240" t="inlineStr">
+      <c r="B240" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr">
+      <c r="C240" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D240" t="n">
+      <c r="D240" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E240" t="inlineStr">
+      <c r="E240" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="n">
+      <c r="A241" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B241" t="inlineStr">
+      <c r="B241" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C241" t="inlineStr">
+      <c r="C241" s="2" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D241" t="n">
+      <c r="D241" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G241" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I241" t="b">
-        <v>1</v>
-      </c>
-      <c r="J241" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K241" t="b">
-        <v>1</v>
-      </c>
-      <c r="L241" t="inlineStr">
+      <c r="E241" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F241" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G241" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H241" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I241" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J241" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K241" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L241" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="n">
+      <c r="A242" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B242" t="inlineStr">
+      <c r="B242" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C242" t="inlineStr">
+      <c r="C242" s="2" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D242" t="n">
+      <c r="D242" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E242" t="inlineStr">
+      <c r="E242" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
+      <c r="F242" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G242" t="b">
-        <v>1</v>
-      </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I242" t="b">
-        <v>1</v>
-      </c>
-      <c r="J242" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K242" t="b">
-        <v>1</v>
-      </c>
-      <c r="L242" t="inlineStr">
+      <c r="G242" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H242" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I242" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J242" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K242" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L242" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13317,7 +13317,7 @@
       </c>
       <c r="F248" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G248" s="2" t="b">
@@ -13341,7 +13341,7 @@
       </c>
       <c r="L248" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13369,7 +13369,7 @@
       </c>
       <c r="F249" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G249" s="2" t="b">
@@ -13393,7 +13393,7 @@
       </c>
       <c r="L249" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13421,7 +13421,7 @@
       </c>
       <c r="F250" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G250" s="2" t="b">
@@ -13445,7 +13445,7 @@
       </c>
       <c r="L250" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="F251" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G251" s="2" t="b">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="L251" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="F252" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G252" s="2" t="b">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="L252" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="F253" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G253" s="2" t="b">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="L253" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F254" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G254" s="2" t="b">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L254" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13681,7 +13681,7 @@
       </c>
       <c r="F255" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G255" s="2" t="b">
@@ -13705,7 +13705,7 @@
       </c>
       <c r="L255" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="F256" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G256" s="2" t="b">
@@ -13757,7 +13757,7 @@
       </c>
       <c r="L256" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13785,7 +13785,7 @@
       </c>
       <c r="F257" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G257" s="2" t="b">
@@ -13809,7 +13809,7 @@
       </c>
       <c r="L257" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -14594,624 +14594,624 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="n">
+      <c r="A273" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B273" t="inlineStr">
+      <c r="B273" s="2" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C273" t="inlineStr">
+      <c r="C273" s="2" t="inlineStr">
         <is>
           <t>Camera</t>
         </is>
       </c>
-      <c r="D273" t="n">
-        <v>0</v>
-      </c>
-      <c r="E273" t="inlineStr">
+      <c r="D273" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E273" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F273" t="inlineStr">
+      <c r="F273" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G273" t="b">
-        <v>1</v>
-      </c>
-      <c r="H273" t="inlineStr">
+      <c r="G273" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H273" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I273" t="b">
-        <v>1</v>
-      </c>
-      <c r="J273" t="inlineStr">
+      <c r="I273" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J273" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K273" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L273" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B274" s="2" t="inlineStr">
+        <is>
+          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C274" s="2" t="inlineStr">
+        <is>
+          <t>RCAM</t>
+        </is>
+      </c>
+      <c r="D274" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E274" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F274" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G274" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H274" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K273" t="b">
-        <v>1</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="n">
+      <c r="I274" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J274" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K274" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L274" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B274" t="inlineStr">
+      <c r="B275" s="2" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>RCAM</t>
-        </is>
-      </c>
-      <c r="D274" t="n">
-        <v>1</v>
-      </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G274" t="b">
-        <v>1</v>
-      </c>
-      <c r="H274" t="inlineStr">
+      <c r="C275" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D275" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E275" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F275" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G275" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H275" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I274" t="b">
-        <v>1</v>
-      </c>
-      <c r="J274" t="inlineStr">
+      <c r="I275" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J275" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K275" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L275" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B276" s="2" t="inlineStr">
+        <is>
+          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C276" s="2" t="inlineStr">
+        <is>
+          <t>connected</t>
+        </is>
+      </c>
+      <c r="D276" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E276" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F276" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G276" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H276" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K274" t="b">
-        <v>1</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="n">
+      <c r="I276" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J276" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K276" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L276" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B275" t="inlineStr">
+      <c r="B277" s="2" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D275" t="n">
-        <v>2</v>
-      </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G275" t="b">
-        <v>1</v>
-      </c>
-      <c r="H275" t="inlineStr">
+      <c r="C277" s="2" t="inlineStr">
+        <is>
+          <t>Image</t>
+        </is>
+      </c>
+      <c r="D277" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E277" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F277" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G277" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H277" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I275" t="b">
-        <v>1</v>
-      </c>
-      <c r="J275" t="inlineStr">
+      <c r="I277" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J277" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K277" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L277" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B278" s="2" t="inlineStr">
+        <is>
+          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C278" s="2" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="D278" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E278" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F278" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G278" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H278" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K275" t="b">
-        <v>1</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="n">
+      <c r="I278" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J278" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K278" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L278" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B276" t="inlineStr">
+      <c r="B279" s="2" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>connected</t>
-        </is>
-      </c>
-      <c r="D276" t="n">
-        <v>3</v>
-      </c>
-      <c r="E276" t="inlineStr">
+      <c r="C279" s="2" t="inlineStr">
+        <is>
+          <t>affected</t>
+        </is>
+      </c>
+      <c r="D279" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E279" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G276" t="b">
-        <v>1</v>
-      </c>
-      <c r="H276" t="inlineStr">
+      <c r="F279" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G279" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H279" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I276" t="b">
-        <v>1</v>
-      </c>
-      <c r="J276" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K276" t="b">
-        <v>1</v>
-      </c>
-      <c r="L276" t="inlineStr">
+      <c r="I279" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J279" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K279" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L279" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" t="n">
+    <row r="280">
+      <c r="A280" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B277" t="inlineStr">
+      <c r="B280" s="2" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>Image</t>
-        </is>
-      </c>
-      <c r="D277" t="n">
-        <v>4</v>
-      </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G277" t="b">
-        <v>1</v>
-      </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I277" t="b">
-        <v>1</v>
-      </c>
-      <c r="J277" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K277" t="b">
-        <v>1</v>
-      </c>
-      <c r="L277" t="inlineStr">
+      <c r="C280" s="2" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="D280" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E280" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F280" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G280" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H280" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I280" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J280" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K280" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L280" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" t="n">
+    <row r="281">
+      <c r="A281" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B278" t="inlineStr">
+      <c r="B281" s="2" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
-      <c r="D278" t="n">
-        <v>5</v>
-      </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G278" t="b">
-        <v>1</v>
-      </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I278" t="b">
-        <v>1</v>
-      </c>
-      <c r="J278" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K278" t="b">
-        <v>1</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="n">
+      <c r="C281" s="2" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D281" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E281" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F281" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G281" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H281" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I281" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J281" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K281" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L281" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B279" t="inlineStr">
+      <c r="B282" s="2" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>affected</t>
-        </is>
-      </c>
-      <c r="D279" t="n">
-        <v>6</v>
-      </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G279" t="b">
-        <v>1</v>
-      </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I279" t="b">
-        <v>1</v>
-      </c>
-      <c r="J279" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K279" t="b">
-        <v>1</v>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="n">
+      <c r="C282" s="2" t="inlineStr">
+        <is>
+          <t>Support</t>
+        </is>
+      </c>
+      <c r="D282" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E282" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F282" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G282" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H282" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I282" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J282" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K282" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L282" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B280" t="inlineStr">
+      <c r="B283" s="2" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="D280" t="n">
-        <v>7</v>
-      </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G280" t="b">
-        <v>1</v>
-      </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I280" t="b">
-        <v>1</v>
-      </c>
-      <c r="J280" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K280" t="b">
-        <v>1</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="n">
+      <c r="C283" s="2" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
+      <c r="D283" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E283" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F283" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G283" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H283" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I283" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J283" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K283" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L283" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B281" t="inlineStr">
+      <c r="B284" s="2" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D281" t="n">
-        <v>8</v>
-      </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G281" t="b">
-        <v>1</v>
-      </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I281" t="b">
-        <v>1</v>
-      </c>
-      <c r="J281" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K281" t="b">
-        <v>1</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="n">
-        <v>17</v>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>Support</t>
-        </is>
-      </c>
-      <c r="D282" t="n">
-        <v>9</v>
-      </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G282" t="b">
-        <v>1</v>
-      </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I282" t="b">
-        <v>1</v>
-      </c>
-      <c r="J282" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K282" t="b">
-        <v>1</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="n">
-        <v>17</v>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>for</t>
-        </is>
-      </c>
-      <c r="D283" t="n">
-        <v>10</v>
-      </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G283" t="b">
-        <v>1</v>
-      </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I283" t="b">
-        <v>1</v>
-      </c>
-      <c r="J283" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K283" t="b">
-        <v>1</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="n">
-        <v>17</v>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr">
+      <c r="C284" s="2" t="inlineStr">
         <is>
           <t>assistance</t>
         </is>
       </c>
-      <c r="D284" t="n">
+      <c r="D284" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E284" t="inlineStr">
+      <c r="E284" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F284" t="inlineStr">
+      <c r="F284" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G284" t="b">
-        <v>1</v>
-      </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I284" t="b">
-        <v>1</v>
-      </c>
-      <c r="J284" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K284" t="b">
-        <v>1</v>
-      </c>
-      <c r="L284" t="inlineStr">
+      <c r="G284" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H284" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I284" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J284" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K284" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L284" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -15530,156 +15530,156 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="n">
+      <c r="A291" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B291" t="inlineStr">
+      <c r="B291" s="2" t="inlineStr">
         <is>
           <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
-      <c r="C291" t="inlineStr">
+      <c r="C291" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D291" t="n">
+      <c r="D291" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E291" t="inlineStr">
+      <c r="E291" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F291" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G291" t="b">
-        <v>1</v>
-      </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I291" t="b">
-        <v>1</v>
-      </c>
-      <c r="J291" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K291" t="b">
-        <v>1</v>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F291" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G291" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H291" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I291" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J291" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K291" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L291" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="n">
+      <c r="A292" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B292" t="inlineStr">
+      <c r="B292" s="2" t="inlineStr">
         <is>
           <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
-      <c r="C292" t="inlineStr">
+      <c r="C292" s="2" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D292" t="n">
+      <c r="D292" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F292" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G292" t="b">
-        <v>1</v>
-      </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I292" t="b">
-        <v>1</v>
-      </c>
-      <c r="J292" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K292" t="b">
-        <v>1</v>
-      </c>
-      <c r="L292" t="inlineStr">
+      <c r="E292" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F292" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G292" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H292" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I292" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J292" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K292" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L292" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="n">
+      <c r="A293" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B293" t="inlineStr">
+      <c r="B293" s="2" t="inlineStr">
         <is>
           <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
-      <c r="C293" t="inlineStr">
+      <c r="C293" s="2" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D293" t="n">
+      <c r="D293" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E293" t="inlineStr">
+      <c r="E293" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F293" t="inlineStr">
+      <c r="F293" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G293" t="b">
-        <v>1</v>
-      </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I293" t="b">
-        <v>1</v>
-      </c>
-      <c r="J293" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K293" t="b">
-        <v>1</v>
-      </c>
-      <c r="L293" t="inlineStr">
+      <c r="G293" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H293" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I293" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J293" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K293" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L293" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -15738,834 +15738,834 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="2" t="n">
+      <c r="A295" t="n">
         <v>19</v>
       </c>
-      <c r="B295" s="2" t="inlineStr">
+      <c r="B295" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C295" s="2" t="inlineStr">
+      <c r="C295" t="inlineStr">
         <is>
           <t>Strong</t>
         </is>
       </c>
-      <c r="D295" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E295" s="2" t="inlineStr">
+      <c r="D295" t="n">
+        <v>0</v>
+      </c>
+      <c r="E295" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F295" s="2" t="inlineStr">
+      <c r="F295" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G295" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H295" s="2" t="inlineStr">
+      <c r="G295" t="b">
+        <v>1</v>
+      </c>
+      <c r="H295" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I295" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J295" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K295" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L295" s="2" t="inlineStr">
+      <c r="I295" t="b">
+        <v>1</v>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K295" t="b">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="2" t="n">
+      <c r="A296" t="n">
         <v>19</v>
       </c>
-      <c r="B296" s="2" t="inlineStr">
+      <c r="B296" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C296" s="2" t="inlineStr">
+      <c r="C296" t="inlineStr">
         <is>
           <t>wind</t>
         </is>
       </c>
-      <c r="D296" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E296" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F296" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G296" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H296" s="2" t="inlineStr">
+      <c r="D296" t="n">
+        <v>1</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G296" t="b">
+        <v>1</v>
+      </c>
+      <c r="H296" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I296" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J296" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K296" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L296" s="2" t="inlineStr">
+      <c r="I296" t="b">
+        <v>1</v>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K296" t="b">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="2" t="n">
+      <c r="A297" t="n">
         <v>19</v>
       </c>
-      <c r="B297" s="2" t="inlineStr">
+      <c r="B297" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C297" s="2" t="inlineStr">
+      <c r="C297" t="inlineStr">
         <is>
           <t>warning</t>
         </is>
       </c>
-      <c r="D297" s="2" t="n">
+      <c r="D297" t="n">
         <v>2</v>
       </c>
-      <c r="E297" s="2" t="inlineStr">
+      <c r="E297" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F297" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G297" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H297" s="2" t="inlineStr">
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G297" t="b">
+        <v>1</v>
+      </c>
+      <c r="H297" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I297" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J297" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K297" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L297" s="2" t="inlineStr">
+      <c r="I297" t="b">
+        <v>1</v>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K297" t="b">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="2" t="n">
+      <c r="A298" t="n">
         <v>19</v>
       </c>
-      <c r="B298" s="2" t="inlineStr">
+      <c r="B298" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C298" s="2" t="inlineStr">
+      <c r="C298" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D298" s="2" t="n">
+      <c r="D298" t="n">
         <v>3</v>
       </c>
-      <c r="E298" s="2" t="inlineStr">
+      <c r="E298" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F298" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G298" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H298" s="2" t="inlineStr">
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G298" t="b">
+        <v>1</v>
+      </c>
+      <c r="H298" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I298" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J298" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K298" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L298" s="2" t="inlineStr">
+      <c r="I298" t="b">
+        <v>1</v>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K298" t="b">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="2" t="n">
+      <c r="A299" t="n">
         <v>19</v>
       </c>
-      <c r="B299" s="2" t="inlineStr">
+      <c r="B299" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C299" s="2" t="inlineStr">
+      <c r="C299" t="inlineStr">
         <is>
           <t>unable</t>
         </is>
       </c>
-      <c r="D299" s="2" t="n">
+      <c r="D299" t="n">
         <v>4</v>
       </c>
-      <c r="E299" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F299" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G299" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H299" s="2" t="inlineStr">
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G299" t="b">
+        <v>1</v>
+      </c>
+      <c r="H299" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I299" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J299" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K299" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L299" s="2" t="inlineStr">
+      <c r="I299" t="b">
+        <v>1</v>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K299" t="b">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="2" t="n">
+      <c r="A300" t="n">
         <v>19</v>
       </c>
-      <c r="B300" s="2" t="inlineStr">
+      <c r="B300" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C300" s="2" t="inlineStr">
+      <c r="C300" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D300" s="2" t="n">
+      <c r="D300" t="n">
         <v>5</v>
       </c>
-      <c r="E300" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F300" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G300" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H300" s="2" t="inlineStr">
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G300" t="b">
+        <v>1</v>
+      </c>
+      <c r="H300" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I300" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J300" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K300" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L300" s="2" t="inlineStr">
+      <c r="I300" t="b">
+        <v>1</v>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K300" t="b">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="2" t="n">
+      <c r="A301" t="n">
         <v>19</v>
       </c>
-      <c r="B301" s="2" t="inlineStr">
+      <c r="B301" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C301" s="2" t="inlineStr">
+      <c r="C301" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D301" s="2" t="n">
+      <c r="D301" t="n">
         <v>6</v>
       </c>
-      <c r="E301" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F301" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G301" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H301" s="2" t="inlineStr">
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G301" t="b">
+        <v>1</v>
+      </c>
+      <c r="H301" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I301" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J301" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K301" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L301" s="2" t="inlineStr">
+      <c r="I301" t="b">
+        <v>1</v>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K301" t="b">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="2" t="n">
+      <c r="A302" t="n">
         <v>19</v>
       </c>
-      <c r="B302" s="2" t="inlineStr">
+      <c r="B302" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C302" s="2" t="inlineStr">
+      <c r="C302" t="inlineStr">
         <is>
           <t>stably</t>
         </is>
       </c>
-      <c r="D302" s="2" t="n">
+      <c r="D302" t="n">
         <v>7</v>
       </c>
-      <c r="E302" s="2" t="inlineStr">
+      <c r="E302" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F302" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G302" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H302" s="2" t="inlineStr">
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G302" t="b">
+        <v>1</v>
+      </c>
+      <c r="H302" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I302" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J302" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K302" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L302" s="2" t="inlineStr">
+      <c r="I302" t="b">
+        <v>1</v>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K302" t="b">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="n">
+      <c r="A303" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B303" t="inlineStr">
+      <c r="B303" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C303" t="inlineStr">
+      <c r="C303" s="2" t="inlineStr">
         <is>
           <t>Lower</t>
         </is>
       </c>
-      <c r="D303" t="n">
+      <c r="D303" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E303" t="inlineStr">
+      <c r="E303" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F303" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G303" t="b">
-        <v>1</v>
-      </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I303" t="b">
-        <v>1</v>
-      </c>
-      <c r="J303" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K303" t="b">
-        <v>1</v>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F303" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G303" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H303" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I303" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J303" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K303" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L303" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="n">
+      <c r="A304" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B304" t="inlineStr">
+      <c r="B304" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C304" t="inlineStr">
+      <c r="C304" s="2" t="inlineStr">
         <is>
           <t>altitude</t>
         </is>
       </c>
-      <c r="D304" t="n">
+      <c r="D304" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E304" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F304" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G304" t="b">
-        <v>1</v>
-      </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I304" t="b">
-        <v>1</v>
-      </c>
-      <c r="J304" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K304" t="b">
-        <v>1</v>
-      </c>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E304" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F304" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G304" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H304" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I304" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J304" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K304" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L304" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="n">
+      <c r="A305" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B305" t="inlineStr">
+      <c r="B305" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C305" t="inlineStr">
+      <c r="C305" s="2" t="inlineStr">
         <is>
           <t>immediately</t>
         </is>
       </c>
-      <c r="D305" t="n">
+      <c r="D305" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E305" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F305" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G305" t="b">
-        <v>1</v>
-      </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I305" t="b">
-        <v>1</v>
-      </c>
-      <c r="J305" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K305" t="b">
-        <v>1</v>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E305" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F305" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G305" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H305" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I305" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J305" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K305" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L305" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="n">
+      <c r="A306" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B306" t="inlineStr">
+      <c r="B306" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C306" t="inlineStr">
+      <c r="C306" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D306" t="n">
+      <c r="D306" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F306" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G306" t="b">
-        <v>1</v>
-      </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I306" t="b">
-        <v>1</v>
-      </c>
-      <c r="J306" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K306" t="b">
-        <v>1</v>
-      </c>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E306" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F306" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G306" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H306" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I306" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J306" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K306" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L306" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="n">
+      <c r="A307" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B307" t="inlineStr">
+      <c r="B307" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C307" t="inlineStr">
+      <c r="C307" s="2" t="inlineStr">
         <is>
           <t>manually</t>
         </is>
       </c>
-      <c r="D307" t="n">
+      <c r="D307" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F307" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G307" t="b">
-        <v>1</v>
-      </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I307" t="b">
-        <v>1</v>
-      </c>
-      <c r="J307" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K307" t="b">
-        <v>1</v>
-      </c>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E307" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F307" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G307" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H307" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I307" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J307" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K307" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L307" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="n">
+      <c r="A308" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B308" t="inlineStr">
+      <c r="B308" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C308" t="inlineStr">
+      <c r="C308" s="2" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D308" t="n">
+      <c r="D308" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E308" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F308" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G308" t="b">
-        <v>1</v>
-      </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I308" t="b">
-        <v>1</v>
-      </c>
-      <c r="J308" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K308" t="b">
-        <v>1</v>
-      </c>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E308" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F308" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G308" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H308" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I308" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J308" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K308" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L308" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="n">
+      <c r="A309" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B309" t="inlineStr">
+      <c r="B309" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C309" t="inlineStr">
+      <c r="C309" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D309" t="n">
+      <c r="D309" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E309" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G309" t="b">
-        <v>1</v>
-      </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I309" t="b">
-        <v>1</v>
-      </c>
-      <c r="J309" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K309" t="b">
-        <v>1</v>
-      </c>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E309" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F309" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G309" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H309" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I309" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J309" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K309" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L309" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="n">
+      <c r="A310" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B310" t="inlineStr">
+      <c r="B310" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C310" t="inlineStr">
+      <c r="C310" s="2" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D310" t="n">
+      <c r="D310" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E310" t="inlineStr">
+      <c r="E310" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F310" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G310" t="b">
-        <v>1</v>
-      </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I310" t="b">
-        <v>1</v>
-      </c>
-      <c r="J310" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K310" t="b">
-        <v>1</v>
-      </c>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F310" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G310" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H310" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I310" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J310" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K310" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L310" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem4/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem4/99/word_level_predictions_99.xlsx
@@ -502,262 +502,262 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="G2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="I2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="I3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Compass</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="G6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
+      <c r="I6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Compass</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3102,210 +3102,210 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" t="n">
         <v>3</v>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2" t="inlineStr">
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" t="n">
         <v>3</v>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" t="n">
         <v>5</v>
       </c>
-      <c r="E53" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F53" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" t="n">
         <v>3</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" t="n">
         <v>6</v>
       </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" t="n">
         <v>3</v>
       </c>
-      <c r="B55" s="2" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>immediately</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n">
+      <c r="D55" t="n">
         <v>7</v>
       </c>
-      <c r="E55" s="2" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3674,416 +3674,416 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C63" s="2" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D63" t="n">
+      <c r="D63" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E63" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K63" t="b">
-        <v>1</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B66" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Aircraft</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>3</v>
-      </c>
-      <c r="E64" t="inlineStr">
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>Support</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>this</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>persists</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>4</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>4</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I65" t="b">
-        <v>1</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K65" t="b">
-        <v>1</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>4</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>5</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K66" t="b">
-        <v>1</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>4</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Support</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>6</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K67" t="b">
-        <v>1</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>4</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>7</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I68" t="b">
-        <v>1</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K68" t="b">
-        <v>1</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>4</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>this</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>8</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K69" t="b">
-        <v>1</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>4</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>persists</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>9</v>
-      </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I70" t="b">
-        <v>1</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K70" t="b">
-        <v>1</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="G70" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4298,366 +4298,366 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" t="n">
         <v>5</v>
       </c>
-      <c r="B75" s="2" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C75" s="2" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D75" s="2" t="n">
+      <c r="D75" t="n">
         <v>3</v>
       </c>
-      <c r="E75" s="2" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F75" s="2" t="inlineStr">
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I75" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K75" t="b">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>5</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>unable</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>4</v>
+      </c>
+      <c r="E76" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G75" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" s="2" t="inlineStr">
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I75" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K75" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L75" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="I76" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K76" t="b">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
         <v>5</v>
       </c>
-      <c r="B76" s="2" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C76" s="2" t="inlineStr">
-        <is>
-          <t>unable</t>
-        </is>
-      </c>
-      <c r="D76" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E76" s="2" t="inlineStr">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>5</v>
+      </c>
+      <c r="E77" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F76" s="2" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G76" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" s="2" t="inlineStr">
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I76" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K76" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L76" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
         <v>5</v>
       </c>
-      <c r="B77" s="2" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C77" s="2" t="inlineStr">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>return</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>6</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>5</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D77" s="2" t="n">
+      <c r="D79" t="n">
+        <v>7</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
         <v>5</v>
       </c>
-      <c r="E77" s="2" t="inlineStr">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>8</v>
+      </c>
+      <c r="E80" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F77" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G77" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L77" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
         <v>5</v>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
-        <is>
-          <t>return</t>
-        </is>
-      </c>
-      <c r="D78" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E78" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>automatically</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>9</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B79" s="2" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
-        </is>
-      </c>
-      <c r="C79" s="2" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D79" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E79" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B81" s="2" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
-        </is>
-      </c>
-      <c r="C81" s="2" t="inlineStr">
-        <is>
-          <t>automatically</t>
-        </is>
-      </c>
-      <c r="D81" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E81" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F81" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G81" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L81" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="K81" t="b">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="F94" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G94" s="2" t="b">
@@ -5321,11 +5321,11 @@
         </is>
       </c>
       <c r="I94" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K94" s="2" t="b">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="L94" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -5373,11 +5373,11 @@
         </is>
       </c>
       <c r="I95" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K95" s="2" t="b">
@@ -5425,11 +5425,11 @@
         </is>
       </c>
       <c r="I96" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K96" s="2" t="b">
@@ -5442,156 +5442,156 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
+      <c r="A97" t="n">
         <v>6</v>
       </c>
-      <c r="B97" s="2" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C97" s="2" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D97" s="2" t="n">
+      <c r="D97" t="n">
         <v>6</v>
       </c>
-      <c r="E97" s="2" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F97" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G97" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I97" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J97" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K97" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L97" s="2" t="inlineStr">
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G97" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I97" t="b">
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K97" t="b">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n">
+      <c r="A98" t="n">
         <v>6</v>
       </c>
-      <c r="B98" s="2" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C98" s="2" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D98" s="2" t="n">
+      <c r="D98" t="n">
         <v>7</v>
       </c>
-      <c r="E98" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F98" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G98" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I98" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J98" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K98" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L98" s="2" t="inlineStr">
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G98" t="b">
+        <v>1</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I98" t="b">
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K98" t="b">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
+      <c r="A99" t="n">
         <v>6</v>
       </c>
-      <c r="B99" s="2" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C99" s="2" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D99" s="2" t="n">
+      <c r="D99" t="n">
         <v>8</v>
       </c>
-      <c r="E99" s="2" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F99" s="2" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G99" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I99" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J99" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K99" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L99" s="2" t="inlineStr">
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I99" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K99" t="b">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6898,156 +6898,156 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" t="n">
         <v>8</v>
       </c>
-      <c r="B125" s="2" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C125" s="2" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D125" s="2" t="n">
+      <c r="D125" t="n">
         <v>8</v>
       </c>
-      <c r="E125" s="2" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="A126" t="n">
         <v>8</v>
       </c>
-      <c r="B126" s="2" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C126" s="2" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D126" s="2" t="n">
+      <c r="D126" t="n">
         <v>9</v>
       </c>
-      <c r="E126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L126" s="2" t="inlineStr">
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
+      <c r="A127" t="n">
         <v>8</v>
       </c>
-      <c r="B127" s="2" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C127" s="2" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D127" s="2" t="n">
+      <c r="D127" t="n">
         <v>10</v>
       </c>
-      <c r="E127" s="2" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F127" s="2" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G127" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L127" s="2" t="inlineStr">
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7337,7 +7337,7 @@
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G133" s="2" t="b">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7626,468 +7626,468 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="n">
+      <c r="A139" t="n">
         <v>9</v>
       </c>
-      <c r="B139" s="2" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C139" s="2" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D139" s="2" t="n">
+      <c r="D139" t="n">
         <v>10</v>
       </c>
-      <c r="E139" s="2" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F139" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G139" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L139" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G139" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" t="b">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
+      <c r="A140" t="n">
         <v>9</v>
       </c>
-      <c r="B140" s="2" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C140" s="2" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D140" s="2" t="n">
+      <c r="D140" t="n">
         <v>11</v>
       </c>
-      <c r="E140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L140" s="2" t="inlineStr">
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" t="b">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
+      <c r="A141" t="n">
         <v>9</v>
       </c>
-      <c r="B141" s="2" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C141" s="2" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D141" s="2" t="n">
+      <c r="D141" t="n">
         <v>12</v>
       </c>
-      <c r="E141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L141" s="2" t="inlineStr">
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n">
+      <c r="A142" t="n">
         <v>9</v>
       </c>
-      <c r="B142" s="2" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C142" s="2" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D142" s="2" t="n">
+      <c r="D142" t="n">
         <v>13</v>
       </c>
-      <c r="E142" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L142" s="2" t="inlineStr">
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" t="b">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n">
+      <c r="A143" t="n">
         <v>9</v>
       </c>
-      <c r="B143" s="2" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C143" s="2" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D143" s="2" t="n">
+      <c r="D143" t="n">
         <v>14</v>
       </c>
-      <c r="E143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L143" s="2" t="inlineStr">
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n">
+      <c r="A144" t="n">
         <v>9</v>
       </c>
-      <c r="B144" s="2" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C144" s="2" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D144" s="2" t="n">
+      <c r="D144" t="n">
         <v>15</v>
       </c>
-      <c r="E144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L144" s="2" t="inlineStr">
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" t="b">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="n">
+      <c r="A145" t="n">
         <v>9</v>
       </c>
-      <c r="B145" s="2" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C145" s="2" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>persists</t>
         </is>
       </c>
-      <c r="D145" s="2" t="n">
+      <c r="D145" t="n">
         <v>16</v>
       </c>
-      <c r="E145" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F145" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G145" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L145" s="2" t="inlineStr">
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G145" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" t="b">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n">
+      <c r="A146" t="n">
         <v>9</v>
       </c>
-      <c r="B146" s="2" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C146" s="2" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>after</t>
         </is>
       </c>
-      <c r="D146" s="2" t="n">
+      <c r="D146" t="n">
         <v>17</v>
       </c>
-      <c r="E146" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F146" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G146" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L146" s="2" t="inlineStr">
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G146" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I146" t="b">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n">
+      <c r="A147" t="n">
         <v>9</v>
       </c>
-      <c r="B147" s="2" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C147" s="2" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>restarting</t>
         </is>
       </c>
-      <c r="D147" s="2" t="n">
+      <c r="D147" t="n">
         <v>18</v>
       </c>
-      <c r="E147" s="2" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F147" s="2" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G147" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L147" s="2" t="inlineStr">
+      <c r="G147" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I147" t="b">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9550,418 +9550,418 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="2" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>Weak</t>
         </is>
       </c>
-      <c r="D176" t="n">
-        <v>0</v>
-      </c>
-      <c r="E176" t="inlineStr">
+      <c r="D176" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="F176" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G176" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" t="inlineStr">
+      <c r="G176" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I176" t="b">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr">
+      <c r="I176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B177" s="2" t="inlineStr">
+        <is>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+        </is>
+      </c>
+      <c r="C177" s="2" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K176" t="b">
-        <v>1</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
+      <c r="I177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L177" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B178" s="2" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>GPS</t>
-        </is>
-      </c>
-      <c r="D177" t="n">
-        <v>1</v>
-      </c>
-      <c r="E177" t="inlineStr">
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>signal</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="G178" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B179" s="2" t="inlineStr">
+        <is>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+        </is>
+      </c>
+      <c r="C179" s="2" t="inlineStr">
+        <is>
+          <t>Positioning</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G177" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" t="inlineStr">
+      <c r="G179" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I177" t="b">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr">
+      <c r="I179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B180" s="2" t="inlineStr">
+        <is>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+        </is>
+      </c>
+      <c r="C180" s="2" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K177" t="b">
-        <v>1</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>signal</t>
-        </is>
-      </c>
-      <c r="D178" t="n">
-        <v>2</v>
-      </c>
-      <c r="E178" t="inlineStr">
+      <c r="C181" s="2" t="inlineStr">
+        <is>
+          <t>may</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="inlineStr">
+        <is>
+          <t>be</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B183" s="2" t="inlineStr">
+        <is>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+        </is>
+      </c>
+      <c r="C183" s="2" t="inlineStr">
+        <is>
+          <t>compromised</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E183" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="F183" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G178" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" t="inlineStr">
+      <c r="G183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I178" t="b">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K178" t="b">
-        <v>1</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="I183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>11</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Positioning</t>
-        </is>
-      </c>
-      <c r="D179" t="n">
-        <v>3</v>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" t="b">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K179" t="b">
-        <v>1</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>11</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="D180" t="n">
-        <v>4</v>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>11</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>may</t>
-        </is>
-      </c>
-      <c r="D181" t="n">
-        <v>5</v>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>11</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>be</t>
-        </is>
-      </c>
-      <c r="D182" t="n">
-        <v>6</v>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>11</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>compromised</t>
-        </is>
-      </c>
-      <c r="D183" t="n">
-        <v>7</v>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K183" t="b">
-        <v>1</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10434,314 +10434,314 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="n">
+      <c r="A193" t="n">
         <v>12</v>
       </c>
-      <c r="B193" s="2" t="inlineStr">
+      <c r="B193" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C193" s="2" t="inlineStr">
+      <c r="C193" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="D193" s="2" t="n">
+      <c r="D193" t="n">
         <v>4</v>
       </c>
-      <c r="E193" s="2" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F193" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G193" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H193" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I193" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J193" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K193" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L193" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G193" t="b">
+        <v>1</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I193" t="b">
+        <v>1</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K193" t="b">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="2" t="n">
+      <c r="A194" t="n">
         <v>12</v>
       </c>
-      <c r="B194" s="2" t="inlineStr">
+      <c r="B194" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C194" s="2" t="inlineStr">
+      <c r="C194" t="inlineStr">
         <is>
           <t>violate</t>
         </is>
       </c>
-      <c r="D194" s="2" t="n">
+      <c r="D194" t="n">
         <v>5</v>
       </c>
-      <c r="E194" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F194" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G194" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H194" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I194" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J194" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K194" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L194" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G194" t="b">
+        <v>1</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I194" t="b">
+        <v>1</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K194" t="b">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="2" t="n">
+      <c r="A195" t="n">
         <v>12</v>
       </c>
-      <c r="B195" s="2" t="inlineStr">
+      <c r="B195" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C195" s="2" t="inlineStr">
+      <c r="C195" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D195" s="2" t="n">
+      <c r="D195" t="n">
         <v>6</v>
       </c>
-      <c r="E195" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F195" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G195" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H195" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I195" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J195" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K195" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L195" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G195" t="b">
+        <v>1</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I195" t="b">
+        <v>1</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K195" t="b">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="2" t="n">
+      <c r="A196" t="n">
         <v>12</v>
       </c>
-      <c r="B196" s="2" t="inlineStr">
+      <c r="B196" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C196" s="2" t="inlineStr">
+      <c r="C196" t="inlineStr">
         <is>
           <t>policies</t>
         </is>
       </c>
-      <c r="D196" s="2" t="n">
+      <c r="D196" t="n">
         <v>7</v>
       </c>
-      <c r="E196" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F196" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G196" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H196" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I196" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J196" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K196" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L196" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G196" t="b">
+        <v>1</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I196" t="b">
+        <v>1</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K196" t="b">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n">
+      <c r="A197" t="n">
         <v>12</v>
       </c>
-      <c r="B197" s="2" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C197" s="2" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D197" s="2" t="n">
+      <c r="D197" t="n">
         <v>8</v>
       </c>
-      <c r="E197" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F197" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G197" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L197" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G197" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I197" t="b">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K197" t="b">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>12</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
+      <c r="D198" t="n">
         <v>9</v>
       </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -10769,7 +10769,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G199" t="b">
@@ -10793,7 +10793,7 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -12150,312 +12150,312 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="2" t="n">
+      <c r="A226" t="n">
         <v>14</v>
       </c>
-      <c r="B226" s="2" t="inlineStr">
+      <c r="B226" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C226" s="2" t="inlineStr">
+      <c r="C226" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D226" s="2" t="n">
+      <c r="D226" t="n">
         <v>6</v>
       </c>
-      <c r="E226" s="2" t="inlineStr">
+      <c r="E226" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F226" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G226" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H226" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I226" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J226" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K226" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L226" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G226" t="b">
+        <v>1</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I226" t="b">
+        <v>1</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K226" t="b">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="2" t="n">
+      <c r="A227" t="n">
         <v>14</v>
       </c>
-      <c r="B227" s="2" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C227" s="2" t="inlineStr">
+      <c r="C227" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D227" s="2" t="n">
+      <c r="D227" t="n">
         <v>7</v>
       </c>
-      <c r="E227" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F227" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G227" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L227" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G227" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I227" t="b">
+        <v>1</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K227" t="b">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="2" t="n">
+      <c r="A228" t="n">
         <v>14</v>
       </c>
-      <c r="B228" s="2" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C228" s="2" t="inlineStr">
+      <c r="C228" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D228" s="2" t="n">
+      <c r="D228" t="n">
         <v>8</v>
       </c>
-      <c r="E228" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F228" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G228" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L228" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G228" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I228" t="b">
+        <v>1</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K228" t="b">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="2" t="n">
+      <c r="A229" t="n">
         <v>14</v>
       </c>
-      <c r="B229" s="2" t="inlineStr">
+      <c r="B229" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C229" s="2" t="inlineStr">
+      <c r="C229" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D229" s="2" t="n">
+      <c r="D229" t="n">
         <v>9</v>
       </c>
-      <c r="E229" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F229" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G229" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H229" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I229" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J229" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K229" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L229" s="2" t="inlineStr">
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G229" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I229" t="b">
+        <v>1</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K229" t="b">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2" t="n">
+      <c r="A230" t="n">
         <v>14</v>
       </c>
-      <c r="B230" s="2" t="inlineStr">
+      <c r="B230" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C230" s="2" t="inlineStr">
+      <c r="C230" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D230" s="2" t="n">
+      <c r="D230" t="n">
         <v>10</v>
       </c>
-      <c r="E230" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F230" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G230" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L230" s="2" t="inlineStr">
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G230" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I230" t="b">
+        <v>1</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K230" t="b">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="2" t="n">
+      <c r="A231" t="n">
         <v>14</v>
       </c>
-      <c r="B231" s="2" t="inlineStr">
+      <c r="B231" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C231" s="2" t="inlineStr">
+      <c r="C231" t="inlineStr">
         <is>
           <t>manually</t>
         </is>
       </c>
-      <c r="D231" s="2" t="n">
+      <c r="D231" t="n">
         <v>11</v>
       </c>
-      <c r="E231" s="2" t="inlineStr">
+      <c r="E231" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F231" s="2" t="inlineStr">
+      <c r="F231" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G231" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L231" s="2" t="inlineStr">
+      <c r="G231" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I231" t="b">
+        <v>1</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K231" t="b">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12878,156 +12878,156 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="2" t="n">
+      <c r="A240" t="n">
         <v>15</v>
       </c>
-      <c r="B240" s="2" t="inlineStr">
+      <c r="B240" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C240" s="2" t="inlineStr">
+      <c r="C240" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D240" s="2" t="n">
+      <c r="D240" t="n">
         <v>7</v>
       </c>
-      <c r="E240" s="2" t="inlineStr">
+      <c r="E240" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F240" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="2" t="n">
+      <c r="A241" t="n">
         <v>15</v>
       </c>
-      <c r="B241" s="2" t="inlineStr">
+      <c r="B241" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C241" s="2" t="inlineStr">
+      <c r="C241" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D241" s="2" t="n">
+      <c r="D241" t="n">
         <v>8</v>
       </c>
-      <c r="E241" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F241" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G241" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I241" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J241" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K241" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L241" s="2" t="inlineStr">
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G241" t="b">
+        <v>1</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I241" t="b">
+        <v>1</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K241" t="b">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="2" t="n">
+      <c r="A242" t="n">
         <v>15</v>
       </c>
-      <c r="B242" s="2" t="inlineStr">
+      <c r="B242" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C242" s="2" t="inlineStr">
+      <c r="C242" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D242" s="2" t="n">
+      <c r="D242" t="n">
         <v>9</v>
       </c>
-      <c r="E242" s="2" t="inlineStr">
+      <c r="E242" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F242" s="2" t="inlineStr">
+      <c r="F242" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G242" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H242" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I242" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J242" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K242" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L242" s="2" t="inlineStr">
+      <c r="G242" t="b">
+        <v>1</v>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I242" t="b">
+        <v>1</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K242" t="b">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13317,7 +13317,7 @@
       </c>
       <c r="F248" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G248" s="2" t="b">
@@ -13341,7 +13341,7 @@
       </c>
       <c r="L248" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13369,7 +13369,7 @@
       </c>
       <c r="F249" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G249" s="2" t="b">
@@ -13393,7 +13393,7 @@
       </c>
       <c r="L249" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13421,7 +13421,7 @@
       </c>
       <c r="F250" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G250" s="2" t="b">
@@ -13445,7 +13445,7 @@
       </c>
       <c r="L250" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="F251" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G251" s="2" t="b">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="L251" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="F252" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G252" s="2" t="b">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="L252" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="F253" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G253" s="2" t="b">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="L253" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F254" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G254" s="2" t="b">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L254" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13681,7 +13681,7 @@
       </c>
       <c r="F255" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G255" s="2" t="b">
@@ -13705,7 +13705,7 @@
       </c>
       <c r="L255" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="F256" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G256" s="2" t="b">
@@ -13757,7 +13757,7 @@
       </c>
       <c r="L256" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13785,7 +13785,7 @@
       </c>
       <c r="F257" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G257" s="2" t="b">
@@ -13809,7 +13809,7 @@
       </c>
       <c r="L257" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -14594,624 +14594,624 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="2" t="n">
+      <c r="A273" t="n">
         <v>17</v>
       </c>
-      <c r="B273" s="2" t="inlineStr">
+      <c r="B273" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C273" s="2" t="inlineStr">
+      <c r="C273" t="inlineStr">
         <is>
           <t>Camera</t>
         </is>
       </c>
-      <c r="D273" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E273" s="2" t="inlineStr">
+      <c r="D273" t="n">
+        <v>0</v>
+      </c>
+      <c r="E273" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F273" s="2" t="inlineStr">
+      <c r="F273" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G273" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H273" s="2" t="inlineStr">
+      <c r="G273" t="b">
+        <v>1</v>
+      </c>
+      <c r="H273" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I273" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J273" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K273" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L273" s="2" t="inlineStr">
+      <c r="I273" t="b">
+        <v>1</v>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K273" t="b">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="2" t="n">
+      <c r="A274" t="n">
         <v>17</v>
       </c>
-      <c r="B274" s="2" t="inlineStr">
+      <c r="B274" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C274" s="2" t="inlineStr">
+      <c r="C274" t="inlineStr">
         <is>
           <t>RCAM</t>
         </is>
       </c>
-      <c r="D274" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E274" s="2" t="inlineStr">
+      <c r="D274" t="n">
+        <v>1</v>
+      </c>
+      <c r="E274" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F274" s="2" t="inlineStr">
+      <c r="F274" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G274" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H274" s="2" t="inlineStr">
+      <c r="G274" t="b">
+        <v>1</v>
+      </c>
+      <c r="H274" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I274" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J274" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K274" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L274" s="2" t="inlineStr">
+      <c r="I274" t="b">
+        <v>1</v>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K274" t="b">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="2" t="n">
+      <c r="A275" t="n">
         <v>17</v>
       </c>
-      <c r="B275" s="2" t="inlineStr">
+      <c r="B275" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C275" s="2" t="inlineStr">
+      <c r="C275" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D275" s="2" t="n">
+      <c r="D275" t="n">
         <v>2</v>
       </c>
-      <c r="E275" s="2" t="inlineStr">
+      <c r="E275" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F275" s="2" t="inlineStr">
+      <c r="F275" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G275" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H275" s="2" t="inlineStr">
+      <c r="G275" t="b">
+        <v>1</v>
+      </c>
+      <c r="H275" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I275" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J275" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K275" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L275" s="2" t="inlineStr">
+      <c r="I275" t="b">
+        <v>1</v>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K275" t="b">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="2" t="n">
+      <c r="A276" t="n">
         <v>17</v>
       </c>
-      <c r="B276" s="2" t="inlineStr">
+      <c r="B276" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C276" s="2" t="inlineStr">
+      <c r="C276" t="inlineStr">
         <is>
           <t>connected</t>
         </is>
       </c>
-      <c r="D276" s="2" t="n">
+      <c r="D276" t="n">
         <v>3</v>
       </c>
-      <c r="E276" s="2" t="inlineStr">
+      <c r="E276" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F276" s="2" t="inlineStr">
+      <c r="F276" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G276" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H276" s="2" t="inlineStr">
+      <c r="G276" t="b">
+        <v>1</v>
+      </c>
+      <c r="H276" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I276" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J276" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K276" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L276" s="2" t="inlineStr">
+      <c r="I276" t="b">
+        <v>1</v>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K276" t="b">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="2" t="n">
+      <c r="A277" t="n">
         <v>17</v>
       </c>
-      <c r="B277" s="2" t="inlineStr">
+      <c r="B277" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C277" s="2" t="inlineStr">
+      <c r="C277" t="inlineStr">
         <is>
           <t>Image</t>
         </is>
       </c>
-      <c r="D277" s="2" t="n">
+      <c r="D277" t="n">
         <v>4</v>
       </c>
-      <c r="E277" s="2" t="inlineStr">
+      <c r="E277" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F277" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G277" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H277" s="2" t="inlineStr">
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G277" t="b">
+        <v>1</v>
+      </c>
+      <c r="H277" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I277" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J277" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K277" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L277" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I277" t="b">
+        <v>1</v>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K277" t="b">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="2" t="n">
+      <c r="A278" t="n">
         <v>17</v>
       </c>
-      <c r="B278" s="2" t="inlineStr">
+      <c r="B278" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C278" s="2" t="inlineStr">
+      <c r="C278" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="D278" s="2" t="n">
+      <c r="D278" t="n">
         <v>5</v>
       </c>
-      <c r="E278" s="2" t="inlineStr">
+      <c r="E278" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F278" s="2" t="inlineStr">
+      <c r="F278" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G278" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H278" s="2" t="inlineStr">
+      <c r="G278" t="b">
+        <v>1</v>
+      </c>
+      <c r="H278" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I278" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J278" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K278" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L278" s="2" t="inlineStr">
+      <c r="I278" t="b">
+        <v>1</v>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K278" t="b">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="2" t="n">
+      <c r="A279" t="n">
         <v>17</v>
       </c>
-      <c r="B279" s="2" t="inlineStr">
+      <c r="B279" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C279" s="2" t="inlineStr">
+      <c r="C279" t="inlineStr">
         <is>
           <t>affected</t>
         </is>
       </c>
-      <c r="D279" s="2" t="n">
+      <c r="D279" t="n">
         <v>6</v>
       </c>
-      <c r="E279" s="2" t="inlineStr">
+      <c r="E279" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F279" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G279" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H279" s="2" t="inlineStr">
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G279" t="b">
+        <v>1</v>
+      </c>
+      <c r="H279" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I279" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J279" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K279" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L279" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="I279" t="b">
+        <v>1</v>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K279" t="b">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="2" t="n">
+      <c r="A280" t="n">
         <v>17</v>
       </c>
-      <c r="B280" s="2" t="inlineStr">
+      <c r="B280" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C280" s="2" t="inlineStr">
+      <c r="C280" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D280" s="2" t="n">
+      <c r="D280" t="n">
         <v>7</v>
       </c>
-      <c r="E280" s="2" t="inlineStr">
+      <c r="E280" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F280" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G280" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H280" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I280" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J280" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K280" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L280" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G280" t="b">
+        <v>1</v>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I280" t="b">
+        <v>1</v>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K280" t="b">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="2" t="n">
+      <c r="A281" t="n">
         <v>17</v>
       </c>
-      <c r="B281" s="2" t="inlineStr">
+      <c r="B281" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C281" s="2" t="inlineStr">
+      <c r="C281" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D281" s="2" t="n">
+      <c r="D281" t="n">
         <v>8</v>
       </c>
-      <c r="E281" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F281" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G281" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H281" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I281" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J281" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K281" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L281" s="2" t="inlineStr">
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G281" t="b">
+        <v>1</v>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I281" t="b">
+        <v>1</v>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K281" t="b">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="2" t="n">
+      <c r="A282" t="n">
         <v>17</v>
       </c>
-      <c r="B282" s="2" t="inlineStr">
+      <c r="B282" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C282" s="2" t="inlineStr">
+      <c r="C282" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D282" s="2" t="n">
+      <c r="D282" t="n">
         <v>9</v>
       </c>
-      <c r="E282" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F282" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G282" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H282" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I282" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J282" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K282" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L282" s="2" t="inlineStr">
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G282" t="b">
+        <v>1</v>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I282" t="b">
+        <v>1</v>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K282" t="b">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="2" t="n">
+      <c r="A283" t="n">
         <v>17</v>
       </c>
-      <c r="B283" s="2" t="inlineStr">
+      <c r="B283" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C283" s="2" t="inlineStr">
+      <c r="C283" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D283" s="2" t="n">
+      <c r="D283" t="n">
         <v>10</v>
       </c>
-      <c r="E283" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F283" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G283" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H283" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I283" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J283" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K283" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L283" s="2" t="inlineStr">
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G283" t="b">
+        <v>1</v>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I283" t="b">
+        <v>1</v>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K283" t="b">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="2" t="n">
+      <c r="A284" t="n">
         <v>17</v>
       </c>
-      <c r="B284" s="2" t="inlineStr">
+      <c r="B284" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C284" s="2" t="inlineStr">
+      <c r="C284" t="inlineStr">
         <is>
           <t>assistance</t>
         </is>
       </c>
-      <c r="D284" s="2" t="n">
+      <c r="D284" t="n">
         <v>11</v>
       </c>
-      <c r="E284" s="2" t="inlineStr">
+      <c r="E284" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F284" s="2" t="inlineStr">
+      <c r="F284" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G284" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H284" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I284" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J284" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K284" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L284" s="2" t="inlineStr">
+      <c r="G284" t="b">
+        <v>1</v>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I284" t="b">
+        <v>1</v>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K284" t="b">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -15530,156 +15530,156 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="2" t="n">
+      <c r="A291" t="n">
         <v>18</v>
       </c>
-      <c r="B291" s="2" t="inlineStr">
+      <c r="B291" t="inlineStr">
         <is>
           <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
-      <c r="C291" s="2" t="inlineStr">
+      <c r="C291" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D291" s="2" t="n">
+      <c r="D291" t="n">
         <v>5</v>
       </c>
-      <c r="E291" s="2" t="inlineStr">
+      <c r="E291" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F291" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G291" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H291" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I291" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J291" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K291" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L291" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G291" t="b">
+        <v>1</v>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I291" t="b">
+        <v>1</v>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K291" t="b">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="2" t="n">
+      <c r="A292" t="n">
         <v>18</v>
       </c>
-      <c r="B292" s="2" t="inlineStr">
+      <c r="B292" t="inlineStr">
         <is>
           <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
-      <c r="C292" s="2" t="inlineStr">
+      <c r="C292" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D292" s="2" t="n">
+      <c r="D292" t="n">
         <v>6</v>
       </c>
-      <c r="E292" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F292" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G292" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H292" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I292" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J292" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K292" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L292" s="2" t="inlineStr">
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G292" t="b">
+        <v>1</v>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I292" t="b">
+        <v>1</v>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K292" t="b">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="2" t="n">
+      <c r="A293" t="n">
         <v>18</v>
       </c>
-      <c r="B293" s="2" t="inlineStr">
+      <c r="B293" t="inlineStr">
         <is>
           <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
-      <c r="C293" s="2" t="inlineStr">
+      <c r="C293" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D293" s="2" t="n">
+      <c r="D293" t="n">
         <v>7</v>
       </c>
-      <c r="E293" s="2" t="inlineStr">
+      <c r="E293" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F293" s="2" t="inlineStr">
+      <c r="F293" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G293" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H293" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I293" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J293" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K293" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L293" s="2" t="inlineStr">
+      <c r="G293" t="b">
+        <v>1</v>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I293" t="b">
+        <v>1</v>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K293" t="b">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -15738,834 +15738,834 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="n">
+      <c r="A295" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B295" t="inlineStr">
+      <c r="B295" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C295" t="inlineStr">
+      <c r="C295" s="2" t="inlineStr">
         <is>
           <t>Strong</t>
         </is>
       </c>
-      <c r="D295" t="n">
-        <v>0</v>
-      </c>
-      <c r="E295" t="inlineStr">
+      <c r="D295" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E295" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F295" t="inlineStr">
+      <c r="F295" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G295" t="b">
-        <v>1</v>
-      </c>
-      <c r="H295" t="inlineStr">
+      <c r="G295" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H295" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I295" t="b">
-        <v>1</v>
-      </c>
-      <c r="J295" t="inlineStr">
+      <c r="I295" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J295" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K295" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L295" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B296" s="2" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
+        </is>
+      </c>
+      <c r="C296" s="2" t="inlineStr">
+        <is>
+          <t>wind</t>
+        </is>
+      </c>
+      <c r="D296" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E296" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F296" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G296" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H296" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K295" t="b">
-        <v>1</v>
-      </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="n">
+      <c r="I296" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J296" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K296" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L296" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B296" t="inlineStr">
+      <c r="B297" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>wind</t>
-        </is>
-      </c>
-      <c r="D296" t="n">
-        <v>1</v>
-      </c>
-      <c r="E296" t="inlineStr">
+      <c r="C297" s="2" t="inlineStr">
+        <is>
+          <t>warning</t>
+        </is>
+      </c>
+      <c r="D297" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E297" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F297" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F296" t="inlineStr">
+      <c r="G297" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H297" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I297" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J297" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K297" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L297" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B298" s="2" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
+        </is>
+      </c>
+      <c r="C298" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft</t>
+        </is>
+      </c>
+      <c r="D298" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E298" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F298" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G296" t="b">
-        <v>1</v>
-      </c>
-      <c r="H296" t="inlineStr">
+      <c r="G298" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H298" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I296" t="b">
-        <v>1</v>
-      </c>
-      <c r="J296" t="inlineStr">
+      <c r="I298" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J298" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K298" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L298" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B299" s="2" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
+        </is>
+      </c>
+      <c r="C299" s="2" t="inlineStr">
+        <is>
+          <t>unable</t>
+        </is>
+      </c>
+      <c r="D299" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E299" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F299" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G299" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H299" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K296" t="b">
-        <v>1</v>
-      </c>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="n">
+      <c r="I299" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J299" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K299" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L299" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B297" t="inlineStr">
+      <c r="B300" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>warning</t>
-        </is>
-      </c>
-      <c r="D297" t="n">
-        <v>2</v>
-      </c>
-      <c r="E297" t="inlineStr">
+      <c r="C300" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D300" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E300" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F300" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G300" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H300" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I300" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J300" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K300" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L300" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B301" s="2" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
+        </is>
+      </c>
+      <c r="C301" s="2" t="inlineStr">
+        <is>
+          <t>fly</t>
+        </is>
+      </c>
+      <c r="D301" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E301" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F301" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G301" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H301" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I301" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J301" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K301" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L301" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B302" s="2" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
+        </is>
+      </c>
+      <c r="C302" s="2" t="inlineStr">
+        <is>
+          <t>stably</t>
+        </is>
+      </c>
+      <c r="D302" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E302" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F297" t="inlineStr">
+      <c r="F302" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G297" t="b">
-        <v>1</v>
-      </c>
-      <c r="H297" t="inlineStr">
+      <c r="G302" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H302" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I297" t="b">
-        <v>1</v>
-      </c>
-      <c r="J297" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K297" t="b">
-        <v>1</v>
-      </c>
-      <c r="L297" t="inlineStr">
+      <c r="I302" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J302" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K302" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L302" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" t="n">
+    <row r="303">
+      <c r="A303" t="n">
         <v>19</v>
       </c>
-      <c r="B298" t="inlineStr">
+      <c r="B303" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>Aircraft</t>
-        </is>
-      </c>
-      <c r="D298" t="n">
-        <v>3</v>
-      </c>
-      <c r="E298" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G298" t="b">
-        <v>1</v>
-      </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I298" t="b">
-        <v>1</v>
-      </c>
-      <c r="J298" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K298" t="b">
-        <v>1</v>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="n">
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Lower</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>8</v>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G303" t="b">
+        <v>1</v>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I303" t="b">
+        <v>1</v>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K303" t="b">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
         <v>19</v>
       </c>
-      <c r="B299" t="inlineStr">
+      <c r="B304" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>unable</t>
-        </is>
-      </c>
-      <c r="D299" t="n">
-        <v>4</v>
-      </c>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F299" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G299" t="b">
-        <v>1</v>
-      </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I299" t="b">
-        <v>1</v>
-      </c>
-      <c r="J299" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K299" t="b">
-        <v>1</v>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="n">
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>altitude</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>9</v>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G304" t="b">
+        <v>1</v>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I304" t="b">
+        <v>1</v>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K304" t="b">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
         <v>19</v>
       </c>
-      <c r="B300" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C300" t="inlineStr">
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>immediately</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>10</v>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G305" t="b">
+        <v>1</v>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I305" t="b">
+        <v>1</v>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K305" t="b">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>19</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>11</v>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G306" t="b">
+        <v>1</v>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I306" t="b">
+        <v>1</v>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K306" t="b">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>19</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>manually</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>12</v>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G307" t="b">
+        <v>1</v>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I307" t="b">
+        <v>1</v>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K307" t="b">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>19</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>return</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>13</v>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G308" t="b">
+        <v>1</v>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I308" t="b">
+        <v>1</v>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K308" t="b">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>19</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D300" t="n">
-        <v>5</v>
-      </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F300" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G300" t="b">
-        <v>1</v>
-      </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I300" t="b">
-        <v>1</v>
-      </c>
-      <c r="J300" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K300" t="b">
-        <v>1</v>
-      </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="n">
+      <c r="D309" t="n">
+        <v>14</v>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G309" t="b">
+        <v>1</v>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I309" t="b">
+        <v>1</v>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K309" t="b">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
         <v>19</v>
       </c>
-      <c r="B301" t="inlineStr">
+      <c r="B310" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>fly</t>
-        </is>
-      </c>
-      <c r="D301" t="n">
-        <v>6</v>
-      </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G301" t="b">
-        <v>1</v>
-      </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I301" t="b">
-        <v>1</v>
-      </c>
-      <c r="J301" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K301" t="b">
-        <v>1</v>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="n">
-        <v>19</v>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>stably</t>
-        </is>
-      </c>
-      <c r="D302" t="n">
-        <v>7</v>
-      </c>
-      <c r="E302" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F302" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G302" t="b">
-        <v>1</v>
-      </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I302" t="b">
-        <v>1</v>
-      </c>
-      <c r="J302" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K302" t="b">
-        <v>1</v>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B303" s="2" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
-        </is>
-      </c>
-      <c r="C303" s="2" t="inlineStr">
-        <is>
-          <t>Lower</t>
-        </is>
-      </c>
-      <c r="D303" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E303" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F303" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G303" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H303" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I303" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J303" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K303" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L303" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B304" s="2" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
-        </is>
-      </c>
-      <c r="C304" s="2" t="inlineStr">
-        <is>
-          <t>altitude</t>
-        </is>
-      </c>
-      <c r="D304" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E304" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F304" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G304" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H304" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I304" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J304" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K304" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L304" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B305" s="2" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
-        </is>
-      </c>
-      <c r="C305" s="2" t="inlineStr">
-        <is>
-          <t>immediately</t>
-        </is>
-      </c>
-      <c r="D305" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E305" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F305" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G305" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H305" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I305" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J305" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K305" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L305" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B306" s="2" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
-        </is>
-      </c>
-      <c r="C306" s="2" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D306" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E306" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F306" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G306" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H306" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I306" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J306" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K306" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L306" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B307" s="2" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
-        </is>
-      </c>
-      <c r="C307" s="2" t="inlineStr">
-        <is>
-          <t>manually</t>
-        </is>
-      </c>
-      <c r="D307" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E307" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F307" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G307" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H307" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I307" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J307" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K307" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L307" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B308" s="2" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
-        </is>
-      </c>
-      <c r="C308" s="2" t="inlineStr">
-        <is>
-          <t>return</t>
-        </is>
-      </c>
-      <c r="D308" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E308" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F308" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G308" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H308" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I308" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J308" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K308" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L308" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B309" s="2" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
-        </is>
-      </c>
-      <c r="C309" s="2" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D309" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E309" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F309" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G309" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H309" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I309" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J309" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K309" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L309" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B310" s="2" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
-        </is>
-      </c>
-      <c r="C310" s="2" t="inlineStr">
+      <c r="C310" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D310" s="2" t="n">
+      <c r="D310" t="n">
         <v>15</v>
       </c>
-      <c r="E310" s="2" t="inlineStr">
+      <c r="E310" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F310" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G310" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H310" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I310" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J310" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K310" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L310" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G310" t="b">
+        <v>1</v>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I310" t="b">
+        <v>1</v>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K310" t="b">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
